--- a/data/scheduling_DNN/predict/0.5/result8.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result8.xlsx
@@ -570,10 +570,10 @@
         <v>0.9773671627044678</v>
       </c>
       <c r="V2" t="n">
-        <v>0.504324197769165</v>
+        <v>0.3972095251083374</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2237696498632431</v>
+        <v>0.3365828990936279</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.240476131439209</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4267974495887756</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1908425688743591</v>
+        <v>0.662073016166687</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8900089263916016</v>
       </c>
       <c r="V4" t="n">
-        <v>0.54131019115448</v>
+        <v>0.5163890719413757</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1215908080339432</v>
+        <v>0.1395917981863022</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8752000331878662</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.5160946249961853</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04769866541028023</v>
+        <v>0.1289566904306412</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8846521377563477</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.507272481918335</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05348529666662216</v>
+        <v>0.1424154043197632</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9314508438110352</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.4008379280567169</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08348230272531509</v>
+        <v>0.2815501093864441</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9155538082122803</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8986057639122009</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1451170295476913</v>
+        <v>0.0002872362092602998</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8729958534240723</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4257773756980896</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2472325712442398</v>
+        <v>0.200004369020462</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8927099704742432</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.4051181674003601</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2631939053535461</v>
+        <v>0.2377457618713379</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9222180843353271</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.4081937372684479</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2689156532287598</v>
+        <v>0.2642210721969604</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8882060050964355</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4064541757106781</v>
       </c>
       <c r="W12" t="n">
-        <v>0.003108848119154572</v>
+        <v>0.2320848256349564</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8742609024047852</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.3975321054458618</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1294752806425095</v>
+        <v>0.2272703498601913</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.887537956237793</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4244120121002197</v>
       </c>
       <c r="W14" t="n">
-        <v>0.003014421323314309</v>
+        <v>0.2144856452941895</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9415690898895264</v>
       </c>
       <c r="V15" t="n">
-        <v>0.375304102897644</v>
+        <v>0.5145419836044312</v>
       </c>
       <c r="W15" t="n">
-        <v>0.320656031370163</v>
+        <v>0.1823521554470062</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8846621513366699</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.508087694644928</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1206050738692284</v>
+        <v>0.1418083161115646</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8740899562835693</v>
       </c>
       <c r="V17" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5076213479042053</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2743592262268066</v>
+        <v>0.1342992335557938</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8853771686553955</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.3995825052261353</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1054578050971031</v>
+        <v>0.2359964549541473</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8685319423675537</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.5089495182037354</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1098908632993698</v>
+        <v>0.129299521446228</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8828628063201904</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.50175940990448</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05192973092198372</v>
+        <v>0.1452398002147675</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8951590061187744</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.4051805734634399</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1302398443222046</v>
+        <v>0.240078866481781</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.553447961807251</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.8676353096961975</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1513435840606689</v>
+        <v>0.09871368855237961</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5688309669494629</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.3974857926368713</v>
       </c>
       <c r="W23" t="n">
-        <v>0.002864297246560454</v>
+        <v>0.02935916930437088</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5294530391693115</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.3995554447174072</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01582487113773823</v>
+        <v>0.01687338575720787</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5369918346405029</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.5044203400611877</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02569315209984779</v>
+        <v>0.001060902257449925</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5259189605712891</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4097195565700531</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03067234717309475</v>
+        <v>0.01350230164825916</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5257670879364014</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.863366425037384</v>
       </c>
       <c r="W27" t="n">
-        <v>0.07929977029561996</v>
+        <v>0.1139733120799065</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5811989307403564</v>
       </c>
       <c r="V28" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.413780152797699</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04109227657318115</v>
+        <v>0.02802904695272446</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5304939746856689</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8648432493209839</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03230136260390282</v>
+        <v>0.1117894351482391</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5450189113616943</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4181113839149475</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1609268635511398</v>
+        <v>0.01610551960766315</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5198709964752197</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.3972122073173523</v>
       </c>
       <c r="W31" t="n">
-        <v>3.55768934241496e-05</v>
+        <v>0.01504517812281847</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5328779220581055</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.5164504647254944</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02697356417775154</v>
+        <v>0.0002698613679967821</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5219478607177734</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.5098268985748291</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0774213895201683</v>
+        <v>0.0001469177223043516</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5233089923858643</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8729317784309387</v>
       </c>
       <c r="W34" t="n">
-        <v>7.752866804366931e-05</v>
+        <v>0.1222360953688622</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5239319801330566</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.5120409727096558</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01389605645090342</v>
+        <v>0.0001413960562786087</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5233619213104248</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.8731133341789246</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01443428266793489</v>
+        <v>0.1223260536789894</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5221738815307617</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.517701268196106</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0199156254529953</v>
+        <v>2.000427048187703e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5205831527709961</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4997149407863617</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02883054688572884</v>
+        <v>0.0004354822740424424</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.544050931930542</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8765016794204712</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02845043316483498</v>
+        <v>0.1105234995484352</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5257511138916016</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.5401007533073425</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002295711310580373</v>
+        <v>0.0002059121470665559</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5331590175628662</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.5142289996147156</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02342895604670048</v>
+        <v>0.0003583455691114068</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4140160083770752</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.3974936604499817</v>
       </c>
       <c r="W42" t="n">
-        <v>0.2793730795383453</v>
+        <v>0.000272987992502749</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4199161529541016</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4065515100955963</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01379514671862125</v>
+        <v>0.0001786136854207143</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3919289112091064</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.8721789121627808</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01503075007349253</v>
+        <v>0.2306400686502457</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3965120315551758</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8657419085502625</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01976845040917397</v>
+        <v>0.2201766818761826</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3915038108825684</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.8701093792915344</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0001476063189329579</v>
+        <v>0.2290632873773575</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4031481742858887</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.3972112834453583</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06328175961971283</v>
+        <v>3.524667408782989e-05</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4073660373687744</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.8708555102348328</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06220369786024094</v>
+        <v>0.2148224860429764</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3943130970001221</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4020097851753235</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1694065034389496</v>
+        <v>5.923900971538387e-05</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.393402099609375</v>
       </c>
       <c r="V50" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.4064897894859314</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1519399136304855</v>
+        <v>0.0001712876255623996</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3987131118774414</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.402351051568985</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0204186700284481</v>
+        <v>1.323460492130835e-05</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3933789730072021</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.425744354724884</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06718048453330994</v>
+        <v>0.001047517987899482</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3950450420379639</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.8658500909805298</v>
       </c>
       <c r="W53" t="n">
-        <v>0.02135111019015312</v>
+        <v>0.221657395362854</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3921051025390625</v>
       </c>
       <c r="V54" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.5394562482833862</v>
       </c>
       <c r="W54" t="n">
-        <v>0.3070966005325317</v>
+        <v>0.02171236090362072</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.39357590675354</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.8880304098129272</v>
       </c>
       <c r="W55" t="n">
-        <v>0.000523356138728559</v>
+        <v>0.2444852590560913</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3950738906860352</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.5159710645675659</v>
       </c>
       <c r="W56" t="n">
-        <v>0.001961446367204189</v>
+        <v>0.01461612619459629</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3959259986877441</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4327563941478729</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02003021165728569</v>
+        <v>0.00135647808201611</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.396885871887207</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.8819344639778137</v>
       </c>
       <c r="W58" t="n">
-        <v>4.205658115097322e-05</v>
+        <v>0.2352721393108368</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3960418701171875</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8658984303474426</v>
       </c>
       <c r="W59" t="n">
-        <v>0.00204795622266829</v>
+        <v>0.2207651883363724</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3957200050354004</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.5109297037124634</v>
       </c>
       <c r="W60" t="n">
-        <v>0.001877371338196099</v>
+        <v>0.01327327452600002</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3950538635253906</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4097611606121063</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01942870579659939</v>
+        <v>0.0002163045865017921</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9542648792266846</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5156830549240112</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2537460029125214</v>
+        <v>0.1923540234565735</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>1.059302091598511</v>
       </c>
       <c r="V63" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.5081895589828491</v>
       </c>
       <c r="W63" t="n">
-        <v>0.5024794936180115</v>
+        <v>0.3037250339984894</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8796000480651855</v>
       </c>
       <c r="V64" t="n">
-        <v>0.514564037322998</v>
+        <v>0.883593738079071</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1332512944936752</v>
+        <v>1.594955938344356e-05</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8888089656829834</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8678045868873596</v>
       </c>
       <c r="W65" t="n">
-        <v>0.19206902384758</v>
+        <v>0.0004411839181557298</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9310557842254639</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8982675075531006</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1173113733530045</v>
+        <v>0.001075071049854159</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8817968368530273</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.8750396966934204</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2286651730537415</v>
+        <v>4.56589441455435e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8778469562530518</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.893826425075531</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2248404175043106</v>
+        <v>0.0002553434169385582</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9093649387359619</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.399619996547699</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2842961549758911</v>
+        <v>0.2598398923873901</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9298770427703857</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.3996186256408691</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1730497628450394</v>
+        <v>0.281173974275589</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8834660053253174</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8707911372184753</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1438519358634949</v>
+        <v>0.0001606522855581716</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8786449432373047</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8881607055664062</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2786368429660797</v>
+        <v>9.054972906596959e-05</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8870680332183838</v>
       </c>
       <c r="V73" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.3972016274929047</v>
       </c>
       <c r="W73" t="n">
-        <v>0.006268925499171019</v>
+        <v>0.2399690896272659</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.931300163269043</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8784998059272766</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1173352226614952</v>
+        <v>0.002787877805531025</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9262840747833252</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.8787317872047424</v>
       </c>
       <c r="W75" t="n">
-        <v>0.3033174276351929</v>
+        <v>0.002261220011860132</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8763949871063232</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.507445216178894</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1403238624334335</v>
+        <v>0.1361239403486252</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8866560459136963</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.868378221988678</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2497255355119705</v>
+        <v>0.0003340788534842432</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8746299743652344</v>
       </c>
       <c r="V78" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8679842352867126</v>
       </c>
       <c r="W78" t="n">
-        <v>0.04105105996131897</v>
+        <v>4.416584852151573e-05</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9043278694152832</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8767120242118835</v>
       </c>
       <c r="W79" t="n">
-        <v>0.16100013256073</v>
+        <v>0.0007626349106431007</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8700571060180664</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4052146375179291</v>
       </c>
       <c r="W80" t="n">
-        <v>0.112615168094635</v>
+        <v>0.216078519821167</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9228999614715576</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.3989671170711517</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1674348413944244</v>
+        <v>0.2745055854320526</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5499980449676514</v>
       </c>
       <c r="V82" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.5052307844161987</v>
       </c>
       <c r="W82" t="n">
-        <v>0.05386239290237427</v>
+        <v>0.002004107693210244</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.534013032913208</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.8593533635139465</v>
       </c>
       <c r="W83" t="n">
-        <v>0.03372427448630333</v>
+        <v>0.1058463305234909</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5249030590057373</v>
       </c>
       <c r="V84" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.3972334861755371</v>
       </c>
       <c r="W84" t="n">
-        <v>0.06646624207496643</v>
+        <v>0.01629951968789101</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5221860408782959</v>
       </c>
       <c r="V85" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4032545685768127</v>
       </c>
       <c r="W85" t="n">
-        <v>0.02949183247983456</v>
+        <v>0.01414469536393881</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5217208862304688</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4789716005325317</v>
       </c>
       <c r="W86" t="n">
-        <v>0.004467751830816269</v>
+        <v>0.001827501459047198</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5511269569396973</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.5165336132049561</v>
       </c>
       <c r="W87" t="n">
-        <v>0.02176475524902344</v>
+        <v>0.001196699449792504</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.521420955657959</v>
       </c>
       <c r="V88" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.5145876407623291</v>
       </c>
       <c r="W88" t="n">
-        <v>0.08057492226362228</v>
+        <v>4.669419286074117e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5233149528503418</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.8918672800064087</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01438991073518991</v>
+        <v>0.135830819606781</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5207588672637939</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.3995881676673889</v>
       </c>
       <c r="W90" t="n">
-        <v>0.00522439694032073</v>
+        <v>0.01468233857303858</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5261561870574951</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.5167379379272461</v>
       </c>
       <c r="W91" t="n">
-        <v>0.02266573533415794</v>
+        <v>8.870341844158247e-05</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5884418487548828</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.891461193561554</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003427935065701604</v>
+        <v>0.09182072430849075</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5336611270904541</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4155313372612</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0007792339893057942</v>
+        <v>0.01395464688539505</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5900330543518066</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.8987653255462646</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01942333020269871</v>
+        <v>0.09531561285257339</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5252888202667236</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8849276900291443</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01678125187754631</v>
+        <v>0.1293401122093201</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5210540294647217</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.5092127323150635</v>
       </c>
       <c r="W96" t="n">
-        <v>4.180955875199288e-05</v>
+        <v>0.0001402163179591298</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5862629413604736</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.4258329272270203</v>
       </c>
       <c r="W97" t="n">
-        <v>0.04210331663489342</v>
+        <v>0.02573778852820396</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5274701118469238</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8639591336250305</v>
       </c>
       <c r="W98" t="n">
-        <v>0.03122206777334213</v>
+        <v>0.1132248640060425</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5264620780944824</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.3972344696521759</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02282496355473995</v>
+        <v>0.0166997741907835</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5300171375274658</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.4010477066040039</v>
       </c>
       <c r="W100" t="n">
-        <v>0.07832116633653641</v>
+        <v>0.01663311384618282</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5237579345703125</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.8916202187538147</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0005704169161617756</v>
+        <v>0.1353226602077484</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4234189987182617</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.3972092568874359</v>
       </c>
       <c r="W102" t="n">
-        <v>0.07131915539503098</v>
+        <v>0.0006869505741633475</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.416295051574707</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4034239947795868</v>
       </c>
       <c r="W103" t="n">
-        <v>0.009546920657157898</v>
+        <v>0.0001656640961300582</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4122650623321533</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.3971876502037048</v>
       </c>
       <c r="W104" t="n">
-        <v>7.413791900034994e-05</v>
+        <v>0.0002273283607792109</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4121530055999756</v>
       </c>
       <c r="V105" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4250578880310059</v>
       </c>
       <c r="W105" t="n">
-        <v>0.2908462584018707</v>
+        <v>0.000166535988682881</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3933088779449463</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4895345270633698</v>
       </c>
       <c r="W106" t="n">
-        <v>0.007108562160283327</v>
+        <v>0.009259375743567944</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3947718143463135</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4147542715072632</v>
       </c>
       <c r="W107" t="n">
-        <v>0.001934581436216831</v>
+        <v>0.0003992985875811428</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3939440250396729</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.5166313648223877</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0118563175201416</v>
+        <v>0.01505218353122473</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3976380825042725</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.5059787631034851</v>
       </c>
       <c r="W109" t="n">
-        <v>3.583297075238079e-05</v>
+        <v>0.011737703345716</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4162859916687012</v>
       </c>
       <c r="V110" t="n">
-        <v>0.534324586391449</v>
+        <v>0.8707478642463684</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01393311005085707</v>
+        <v>0.206535592675209</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3984611034393311</v>
       </c>
       <c r="V111" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8646839261054993</v>
       </c>
       <c r="W111" t="n">
-        <v>0.3000979721546173</v>
+        <v>0.217363715171814</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.411297082901001</v>
       </c>
       <c r="V112" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8655556440353394</v>
       </c>
       <c r="W112" t="n">
-        <v>0.2919068336486816</v>
+        <v>0.2063508331775665</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3957080841064453</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.508138120174408</v>
       </c>
       <c r="W113" t="n">
-        <v>0.02731853723526001</v>
+        <v>0.01264051254838705</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3947300910949707</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4249504506587982</v>
       </c>
       <c r="W114" t="n">
-        <v>0.01198145188391209</v>
+        <v>0.0009132701088674366</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4274938106536865</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.4050168991088867</v>
       </c>
       <c r="W115" t="n">
-        <v>0.003225878579542041</v>
+        <v>0.0005052115302532911</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3992891311645508</v>
       </c>
       <c r="V116" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.3972167074680328</v>
       </c>
       <c r="W116" t="n">
-        <v>0.3009414970874786</v>
+        <v>4.294940026738914e-06</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3980660438537598</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.3989505767822266</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0005301166092976928</v>
+        <v>7.823985015420476e-07</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4034459590911865</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5047123432159424</v>
       </c>
       <c r="W118" t="n">
-        <v>5.205998832025216e-08</v>
+        <v>0.01025488041341305</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3973560333251953</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4783552289009094</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1791170239448547</v>
+        <v>0.006560869514942169</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.406217098236084</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.425923764705658</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01572233624756336</v>
+        <v>0.0003883526951540262</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4456748962402344</v>
       </c>
       <c r="V121" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4847915768623352</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1139746382832527</v>
+        <v>0.001530114677734673</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8792660236358643</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8664296269416809</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1141837686300278</v>
+        <v>0.0001647730823606253</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>1.056241035461426</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4064571261405945</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1717108488082886</v>
+        <v>0.4222191274166107</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8686840534210205</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.3974904417991638</v>
       </c>
       <c r="W124" t="n">
-        <v>0.0466030053794384</v>
+        <v>0.2220234125852585</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.928879976272583</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4064919352531433</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1723308563232422</v>
+        <v>0.272889256477356</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8896138668060303</v>
       </c>
       <c r="V126" t="n">
-        <v>0.654965877532959</v>
+        <v>0.5167185068130493</v>
       </c>
       <c r="W126" t="n">
-        <v>0.05505967885255814</v>
+        <v>0.1390509456396103</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.873833179473877</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5156963467597961</v>
       </c>
       <c r="W127" t="n">
-        <v>0.273582249879837</v>
+        <v>0.128261998295784</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.87693190574646</v>
       </c>
       <c r="V128" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.511782705783844</v>
       </c>
       <c r="W128" t="n">
-        <v>0.003959343302994967</v>
+        <v>0.1333339363336563</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9254348278045654</v>
       </c>
       <c r="V129" t="n">
-        <v>0.514431357383728</v>
+        <v>0.3972304463386536</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1689238548278809</v>
+        <v>0.2789998650550842</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9138801097869873</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8586878180503845</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1708225309848785</v>
+        <v>0.003046188969165087</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8697259426116943</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4066309332847595</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2693053781986237</v>
+        <v>0.2144569903612137</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8817069530487061</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.4983624517917633</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2818825840950012</v>
+        <v>0.1469530016183853</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8995211124420166</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.5254368185997009</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1776357144117355</v>
+        <v>0.1399390548467636</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8759720325469971</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.8653671145439148</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1678911596536636</v>
+        <v>0.0001124642876675352</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8880660533905029</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4249268174171448</v>
       </c>
       <c r="W135" t="n">
-        <v>0.04186749085783958</v>
+        <v>0.2144979536533356</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8710269927978516</v>
       </c>
       <c r="V136" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.865488588809967</v>
       </c>
       <c r="W136" t="n">
-        <v>0.005873727612197399</v>
+        <v>3.067392026423477e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8742730617523193</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.509265124797821</v>
       </c>
       <c r="W137" t="n">
-        <v>0.04902324825525284</v>
+        <v>0.1332307904958725</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8760001659393311</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.8703574538230896</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1582711786031723</v>
+        <v>3.184020170010626e-05</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8718459606170654</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4904601871967316</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1350822299718857</v>
+        <v>0.1454551070928574</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8916819095611572</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8740553855895996</v>
       </c>
       <c r="W140" t="n">
-        <v>0.06173423677682877</v>
+        <v>0.000310694333165884</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8812730312347412</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.3972306847572327</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2283977270126343</v>
+        <v>0.2342969924211502</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5322990417480469</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4008766114711761</v>
       </c>
       <c r="W142" t="n">
-        <v>0.03295013308525085</v>
+        <v>0.0172718558460474</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5272278785705566</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8688599467277527</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0001374255080008879</v>
+        <v>0.1167124733328819</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5275599956512451</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8721850514411926</v>
       </c>
       <c r="W144" t="n">
-        <v>0.002492993604391813</v>
+        <v>0.1187664270401001</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5775830745697021</v>
       </c>
       <c r="V145" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.886547863483429</v>
       </c>
       <c r="W145" t="n">
-        <v>0.04252143949270248</v>
+        <v>0.0954592376947403</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5271220207214355</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.8785160779953003</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0002031893673120067</v>
+        <v>0.1234777867794037</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5509750843048096</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4872113466262817</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0173212643712759</v>
+        <v>0.004065814428031445</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5270991325378418</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.397186815738678</v>
       </c>
       <c r="W148" t="n">
-        <v>0.00121320178732276</v>
+        <v>0.01687720976769924</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5287609100341797</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.4899542629718781</v>
       </c>
       <c r="W149" t="n">
-        <v>0.006310258526355028</v>
+        <v>0.001505955820903182</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5244669914245605</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.8990108370780945</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02184373885393143</v>
+        <v>0.1402830928564072</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5362560749053955</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4014467000961304</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01768094301223755</v>
+        <v>0.01817356795072556</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5806510448455811</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.4984804391860962</v>
       </c>
       <c r="W152" t="n">
-        <v>0.008356928825378418</v>
+        <v>0.006752008572220802</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5243430137634277</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4008512794971466</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02999733574688435</v>
+        <v>0.01525020878762007</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5245189666748047</v>
       </c>
       <c r="V154" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4008544683456421</v>
       </c>
       <c r="W154" t="n">
-        <v>0.1792449802160263</v>
+        <v>0.01529290806502104</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5279281139373779</v>
       </c>
       <c r="V155" t="n">
-        <v>0.946087121963501</v>
+        <v>0.397219330072403</v>
       </c>
       <c r="W155" t="n">
-        <v>0.174856960773468</v>
+        <v>0.01708478666841984</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5332980155944824</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8654746413230896</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01476604864001274</v>
+        <v>0.1103413105010986</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5621249675750732</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.4143364131450653</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0002188551443396136</v>
+        <v>0.02184145711362362</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5258479118347168</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.5075272917747498</v>
       </c>
       <c r="W158" t="n">
-        <v>0.000132768735056743</v>
+        <v>0.0003356451052241027</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5254659652709961</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4885226488113403</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0005583920865319669</v>
+        <v>0.001364808646030724</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5247969627380371</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.5285452604293823</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0001133598561864346</v>
+        <v>1.404973590979353e-05</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5777518749237061</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8643641471862793</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0161510668694973</v>
+        <v>0.08214659243822098</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4081718921661377</v>
       </c>
       <c r="V162" t="n">
-        <v>0.782903790473938</v>
+        <v>0.8996902108192444</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1404239982366562</v>
+        <v>0.2415902614593506</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3971080780029297</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.5401276350021362</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0596378855407238</v>
+        <v>0.02045459300279617</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3998439311981201</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.3974740207195282</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01891147531569004</v>
+        <v>5.616475846181856e-06</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3991801738739014</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.8637852668762207</v>
       </c>
       <c r="W165" t="n">
-        <v>0.002654069801792502</v>
+        <v>0.2158578932285309</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3935530185699463</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.5165995955467224</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01192859746515751</v>
+        <v>0.01514045987278223</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4571108818054199</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8554822206497192</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03910147026181221</v>
+        <v>0.1586997210979462</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4034140110015869</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.4042218923568726</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01665132306516171</v>
+        <v>6.526722700073151e-07</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.400972843170166</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.8552468419075012</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01044773403555155</v>
+        <v>0.2063648700714111</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3991129398345947</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8761078119277954</v>
       </c>
       <c r="W170" t="n">
-        <v>0.01097649149596691</v>
+        <v>0.2275241017341614</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3973889350891113</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.3971870839595795</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0002719185431487858</v>
+        <v>4.074387760510945e-08</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.400068998336792</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.5167257189750671</v>
       </c>
       <c r="W172" t="n">
-        <v>0.03098686784505844</v>
+        <v>0.01360879093408585</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4574480056762695</v>
       </c>
       <c r="V173" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.8665547966957092</v>
       </c>
       <c r="W173" t="n">
-        <v>0.1063157021999359</v>
+        <v>0.1673683673143387</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4176139831542969</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.5167098045349121</v>
       </c>
       <c r="W174" t="n">
-        <v>0.002161315875127912</v>
+        <v>0.009819981642067432</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4025900363922119</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.8693504333496094</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01029857899993658</v>
+        <v>0.2178652733564377</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3981661796569824</v>
       </c>
       <c r="V176" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.5150196552276611</v>
       </c>
       <c r="W176" t="n">
-        <v>0.1679438948631287</v>
+        <v>0.01365473493933678</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4181060791015625</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4795244634151459</v>
       </c>
       <c r="W177" t="n">
-        <v>0.07854945957660675</v>
+        <v>0.003772218013182282</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4011161327362061</v>
       </c>
       <c r="V178" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.4842949211597443</v>
       </c>
       <c r="W178" t="n">
-        <v>0.1647762060165405</v>
+        <v>0.0069187106564641</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4577679634094238</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.4245957434177399</v>
       </c>
       <c r="W179" t="n">
-        <v>0.03396813943982124</v>
+        <v>0.001100396155379713</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3996090888977051</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.8553945422172546</v>
       </c>
       <c r="W180" t="n">
-        <v>0.01646678149700165</v>
+        <v>0.207740381360054</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4326081275939941</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8714086413383484</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0115558048710227</v>
+        <v>0.1925458908081055</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.88199782371521</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.5094113349914551</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1355537325143814</v>
+        <v>0.138820692896843</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8762569427490234</v>
       </c>
       <c r="V183" t="n">
-        <v>0.656647801399231</v>
+        <v>0.5076537132263184</v>
       </c>
       <c r="W183" t="n">
-        <v>0.04822817444801331</v>
+        <v>0.1358683407306671</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9785208702087402</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.8663997054100037</v>
       </c>
       <c r="W184" t="n">
-        <v>0.3946676552295685</v>
+        <v>0.01257115602493286</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9027178287506104</v>
       </c>
       <c r="V185" t="n">
-        <v>0.466268926858902</v>
+        <v>0.3989563584327698</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1904876381158829</v>
+        <v>0.2537756264209747</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8725118637084961</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.5048649907112122</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1096508428454399</v>
+        <v>0.1351642161607742</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8846879005432129</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.5166424512863159</v>
       </c>
       <c r="W187" t="n">
-        <v>0.04084129258990288</v>
+        <v>0.135457456111908</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9008388519287109</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4023585319519043</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1390769183635712</v>
+        <v>0.2484826296567917</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8802230358123779</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.5103622674942017</v>
       </c>
       <c r="W189" t="n">
-        <v>0.16212198138237</v>
+        <v>0.1367969810962677</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.870927095413208</v>
       </c>
       <c r="V190" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8662630915641785</v>
       </c>
       <c r="W190" t="n">
-        <v>0.03551042824983597</v>
+        <v>2.175293229811359e-05</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8899970054626465</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.5086122751235962</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1508649885654449</v>
+        <v>0.1454543173313141</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8742949962615967</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.8724669814109802</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2215651124715805</v>
+        <v>3.341638375786715e-06</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8956859111785889</v>
       </c>
       <c r="V193" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.3972122371196747</v>
       </c>
       <c r="W193" t="n">
-        <v>0.01270956359803677</v>
+        <v>0.2484759986400604</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8750948905944824</v>
       </c>
       <c r="V194" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8675845861434937</v>
       </c>
       <c r="W194" t="n">
-        <v>0.005628065206110477</v>
+        <v>5.640467134071514e-05</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8699159622192383</v>
       </c>
       <c r="V195" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.3991062045097351</v>
       </c>
       <c r="W195" t="n">
-        <v>0.007564252708107233</v>
+        <v>0.2216618210077286</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8710060119628906</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.516566276550293</v>
       </c>
       <c r="W196" t="n">
-        <v>0.09624029695987701</v>
+        <v>0.1256275326013565</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9052731990814209</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.8665958046913147</v>
       </c>
       <c r="W197" t="n">
-        <v>0.06980672478675842</v>
+        <v>0.001495940843597054</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8797140121459961</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.5128707885742188</v>
       </c>
       <c r="W198" t="n">
-        <v>0.09298257529735565</v>
+        <v>0.1345739513635635</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9318499565124512</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.5120254158973694</v>
       </c>
       <c r="W199" t="n">
-        <v>0.06215637549757957</v>
+        <v>0.1762526482343674</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8741679191589355</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.5096786022186279</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2168026119470596</v>
+        <v>0.1328524649143219</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8794248104095459</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.5055581331253052</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1839192509651184</v>
+        <v>0.1397762894630432</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5270261764526367</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.4883806109428406</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0002132063818862662</v>
+        <v>0.001493479707278311</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5241429805755615</v>
       </c>
       <c r="V203" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.5117624402046204</v>
       </c>
       <c r="W203" t="n">
-        <v>0.02948573045432568</v>
+        <v>0.0001532777823740616</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.558154821395874</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4032479226589203</v>
       </c>
       <c r="W204" t="n">
-        <v>0.001980530563741922</v>
+        <v>0.0239961463958025</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5246210098266602</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.8788807988166809</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0141122043132782</v>
+        <v>0.1254999935626984</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.528886079788208</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.5166542530059814</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0002269420801894739</v>
+        <v>0.0001496175827924162</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5302360057830811</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.5042051076889038</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0006691718590445817</v>
+        <v>0.0006776076625101268</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.525378942489624</v>
       </c>
       <c r="V208" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8677629232406616</v>
       </c>
       <c r="W208" t="n">
-        <v>3.80575584131293e-05</v>
+        <v>0.1172267869114876</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5813870429992676</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.8910114169120789</v>
       </c>
       <c r="W209" t="n">
-        <v>0.006075096782296896</v>
+        <v>0.09586725383996964</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5641729831695557</v>
       </c>
       <c r="V210" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.8668931126594543</v>
       </c>
       <c r="W210" t="n">
-        <v>0.06140696257352829</v>
+        <v>0.09163947403430939</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5521030426025391</v>
       </c>
       <c r="V211" t="n">
-        <v>0.672245979309082</v>
+        <v>0.5164474844932556</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01443432550877333</v>
+        <v>0.001271318877115846</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5312881469726562</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8767737746238708</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01729802042245865</v>
+        <v>0.1193603202700615</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5300800800323486</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8715229034423828</v>
       </c>
       <c r="W213" t="n">
-        <v>4.523333245742833e-06</v>
+        <v>0.1165831983089447</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.530829906463623</v>
       </c>
       <c r="V214" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.4901259541511536</v>
       </c>
       <c r="W214" t="n">
-        <v>0.1694072932004929</v>
+        <v>0.001656811684370041</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5321879386901855</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.8656214475631714</v>
       </c>
       <c r="W215" t="n">
-        <v>0.07724059373140335</v>
+        <v>0.1111779063940048</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.534041166305542</v>
       </c>
       <c r="V216" t="n">
-        <v>0.381181538105011</v>
+        <v>0.8772210478782654</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02336606569588184</v>
+        <v>0.1177724301815033</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5247738361358643</v>
       </c>
       <c r="V217" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4066625535488129</v>
       </c>
       <c r="W217" t="n">
-        <v>0.03027245216071606</v>
+        <v>0.0139502752572298</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5293049812316895</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.509129524230957</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01580142602324486</v>
+        <v>0.0004070490540470928</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5311880111694336</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8838321566581726</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0002922665153164417</v>
+        <v>0.1243578940629959</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5340619087219238</v>
       </c>
       <c r="V220" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.515194833278656</v>
       </c>
       <c r="W220" t="n">
-        <v>0.06250768899917603</v>
+        <v>0.000355966534698382</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.528548002243042</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.5093129873275757</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01559159439057112</v>
+        <v>0.0003699857916217297</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3923921585083008</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4242644309997559</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0888669490814209</v>
+        <v>0.001015841728076339</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3949811458587646</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.5090817213058472</v>
       </c>
       <c r="W223" t="n">
-        <v>0.005074820481240749</v>
+        <v>0.01301894150674343</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4006919860839844</v>
       </c>
       <c r="V224" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.5041458606719971</v>
       </c>
       <c r="W224" t="n">
-        <v>0.295373409986496</v>
+        <v>0.01070270407944918</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4019808769226074</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.8659984469413757</v>
       </c>
       <c r="W225" t="n">
-        <v>2.98052168545837e-06</v>
+        <v>0.2153123021125793</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4021320343017578</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4257297515869141</v>
       </c>
       <c r="W226" t="n">
-        <v>2.421164253973984e-06</v>
+        <v>0.0005568522610701621</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4042708873748779</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.3974978923797607</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01766695640981197</v>
+        <v>4.587346120388247e-05</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4050500392913818</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8706784248352051</v>
       </c>
       <c r="W228" t="n">
-        <v>0.01014169491827488</v>
+        <v>0.2168097943067551</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4002439975738525</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.5126165747642517</v>
       </c>
       <c r="W229" t="n">
-        <v>0.01081254798918962</v>
+        <v>0.01262759603559971</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3996028900146484</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4251115322113037</v>
       </c>
       <c r="W230" t="n">
-        <v>0.08004885166883469</v>
+        <v>0.0006506908102892339</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3992350101470947</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.5101797580718994</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01823022775352001</v>
+        <v>0.01230873726308346</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4166579246520996</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.3975016176700592</v>
       </c>
       <c r="W232" t="n">
-        <v>0.002463659271597862</v>
+        <v>0.0003669640864245594</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4020068645477295</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8625457882881165</v>
       </c>
       <c r="W233" t="n">
-        <v>0.00945686362683773</v>
+        <v>0.212096095085144</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4026069641113281</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.3972162902355194</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01026371866464615</v>
+        <v>2.905936526076403e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4021189212799072</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.4032193422317505</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0348413959145546</v>
+        <v>1.210926257044775e-06</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4015340805053711</v>
       </c>
       <c r="V236" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.3972447216510773</v>
       </c>
       <c r="W236" t="n">
-        <v>0.1655448526144028</v>
+        <v>1.839859942265321e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3986978530883789</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4033088088035583</v>
       </c>
       <c r="W237" t="n">
-        <v>0.02621038816869259</v>
+        <v>2.126091203535907e-05</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.4281001091003418</v>
       </c>
       <c r="V238" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4102765917778015</v>
       </c>
       <c r="W238" t="n">
-        <v>0.146142452955246</v>
+        <v>0.0003176777681801468</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3974308967590332</v>
       </c>
       <c r="V239" t="n">
-        <v>0.654166579246521</v>
+        <v>0.488124668598175</v>
       </c>
       <c r="W239" t="n">
-        <v>0.06591320782899857</v>
+        <v>0.008225359953939915</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3963508605957031</v>
       </c>
       <c r="V240" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8699644207954407</v>
       </c>
       <c r="W240" t="n">
-        <v>0.3000073432922363</v>
+        <v>0.2243098020553589</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3972170352935791</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4983058571815491</v>
       </c>
       <c r="W241" t="n">
-        <v>4.05997852794826e-05</v>
+        <v>0.01021894998848438</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9786741733551025</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.8845341801643372</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2159383147954941</v>
+        <v>0.008862338028848171</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.021574020385742</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.4032503664493561</v>
       </c>
       <c r="W243" t="n">
-        <v>0.381867527961731</v>
+        <v>0.3823241889476776</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8791148662567139</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.882802426815033</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1140653714537621</v>
+        <v>1.359810266876593e-05</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8793380260467529</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.4101943969726562</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1424555331468582</v>
+        <v>0.2200957387685776</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8737859725952148</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.502946138381958</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2425766885280609</v>
+        <v>0.1375221759080887</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8848879337310791</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.5086791515350342</v>
       </c>
       <c r="W247" t="n">
-        <v>0.05289463326334953</v>
+        <v>0.1415330469608307</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8820731639862061</v>
       </c>
       <c r="V248" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.8703201413154602</v>
       </c>
       <c r="W248" t="n">
-        <v>0.009676319546997547</v>
+        <v>0.0001381335459882393</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8879768848419189</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4086041450500488</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1201781257987022</v>
+        <v>0.2297982275485992</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.877443790435791</v>
       </c>
       <c r="V250" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.5085194110870361</v>
       </c>
       <c r="W250" t="n">
-        <v>0.008942951448261738</v>
+        <v>0.1361051946878433</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.907991886138916</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.5113608241081238</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2837515771389008</v>
+        <v>0.157316192984581</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8805689811706543</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4257432222366333</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2275139838457108</v>
+        <v>0.2068664729595184</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8831939697265625</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8619651794433594</v>
       </c>
       <c r="W253" t="n">
-        <v>0.08006437122821808</v>
+        <v>0.0004506615223363042</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9325211048126221</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4240528345108032</v>
       </c>
       <c r="W254" t="n">
-        <v>0.01356006413698196</v>
+        <v>0.2585399746894836</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.881397008895874</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.8973773717880249</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2284542918205261</v>
+        <v>0.0002553719969000667</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8795590400695801</v>
       </c>
       <c r="V256" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.5097610950469971</v>
       </c>
       <c r="W256" t="n">
-        <v>0.009354408830404282</v>
+        <v>0.1367505192756653</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8846070766448975</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.8583667278289795</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1442320793867111</v>
+        <v>0.00068855588324368</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.948897123336792</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.3972246944904327</v>
       </c>
       <c r="W258" t="n">
-        <v>0.08527913689613342</v>
+        <v>0.30434250831604</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8792312145233154</v>
       </c>
       <c r="V259" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.868391215801239</v>
       </c>
       <c r="W259" t="n">
-        <v>0.009167326614260674</v>
+        <v>0.0001175055731437169</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8725149631500244</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.5458212494850159</v>
       </c>
       <c r="W260" t="n">
-        <v>0.04770725592970848</v>
+        <v>0.1067287847399712</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.872791051864624</v>
       </c>
       <c r="V261" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8649285435676575</v>
       </c>
       <c r="W261" t="n">
-        <v>0.003244725288823247</v>
+        <v>6.181903881952167e-05</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5977189540863037</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.5141614675521851</v>
       </c>
       <c r="W262" t="n">
-        <v>0.001903847674839199</v>
+        <v>0.006981853395700455</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5333778858184814</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.4014365375041962</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01684090495109558</v>
+        <v>0.01740851998329163</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5294368267059326</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.8703807592391968</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02016039192676544</v>
+        <v>0.1162427663803101</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5353319644927979</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4081674218177795</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01139279082417488</v>
+        <v>0.01617082022130489</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5312001705169678</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.8702846169471741</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0001038533155224286</v>
+        <v>0.1149782612919807</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5341098308563232</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.5082873702049255</v>
       </c>
       <c r="W267" t="n">
-        <v>0.007340369280427694</v>
+        <v>0.0006667994894087315</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5329229831695557</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4052248299121857</v>
       </c>
       <c r="W268" t="n">
-        <v>0.07615969330072403</v>
+        <v>0.01630681753158569</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5818979740142822</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.5098780393600464</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01782075688242912</v>
+        <v>0.005186871159821749</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5292150974273682</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8781395554542542</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01756700687110424</v>
+        <v>0.1217482760548592</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5363330841064453</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.4033060669898987</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01440180372446775</v>
+        <v>0.01769618690013885</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5394589900970459</v>
       </c>
       <c r="V272" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.8765192627906799</v>
       </c>
       <c r="W272" t="n">
-        <v>0.07323085516691208</v>
+        <v>0.1136096268892288</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5351159572601318</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8675236105918884</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0004552435129880905</v>
+        <v>0.1104948446154594</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5960431098937988</v>
       </c>
       <c r="V274" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8738327026367188</v>
       </c>
       <c r="W274" t="n">
-        <v>0.003661710070446134</v>
+        <v>0.07716705650091171</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.534276008605957</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.5067251920700073</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01492395810782909</v>
+        <v>0.0007590475142933428</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5397419929504395</v>
       </c>
       <c r="V276" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4783591032028198</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0006384396110661328</v>
+        <v>0.003767859190702438</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5341260433197021</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.4093338847160339</v>
       </c>
       <c r="W277" t="n">
-        <v>0.02690836787223816</v>
+        <v>0.01557308249175549</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.540956974029541</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.8596941828727722</v>
       </c>
       <c r="W278" t="n">
-        <v>0.02005785703659058</v>
+        <v>0.101593405008316</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5329499244689941</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8647182583808899</v>
       </c>
       <c r="W279" t="n">
-        <v>2.756100730039179e-05</v>
+        <v>0.1100702285766602</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5285868644714355</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8938755393028259</v>
       </c>
       <c r="W280" t="n">
-        <v>0.03103085793554783</v>
+        <v>0.1334358155727386</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5306620597839355</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.413574606180191</v>
       </c>
       <c r="W281" t="n">
-        <v>0.03236101567745209</v>
+        <v>0.01370947156101465</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4116649627685547</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.5166963338851929</v>
       </c>
       <c r="W282" t="n">
-        <v>0.008387667126953602</v>
+        <v>0.01103158853948116</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4360671043395996</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.5166953802108765</v>
       </c>
       <c r="W283" t="n">
-        <v>0.006299751810729504</v>
+        <v>0.006500918883830309</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4095430374145508</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.5030527710914612</v>
       </c>
       <c r="W284" t="n">
-        <v>3.790144182858057e-05</v>
+        <v>0.008744070306420326</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4050149917602539</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4874112010002136</v>
       </c>
       <c r="W285" t="n">
-        <v>0.04129420593380928</v>
+        <v>0.006789135280996561</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.419543981552124</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.5002648830413818</v>
       </c>
       <c r="W286" t="n">
-        <v>0.004729004111140966</v>
+        <v>0.006515863817185163</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.440485954284668</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.3972072005271912</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01018086913973093</v>
+        <v>0.001873050583526492</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4377691745758057</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.5165970921516418</v>
       </c>
       <c r="W288" t="n">
-        <v>0.04280548915266991</v>
+        <v>0.006213840562850237</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4747850894927979</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8700483441352844</v>
       </c>
       <c r="W289" t="n">
-        <v>0.008764564990997314</v>
+        <v>0.1562330424785614</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4033920764923096</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.4092501401901245</v>
       </c>
       <c r="W290" t="n">
-        <v>0.03010223060846329</v>
+        <v>3.431690856814384e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4088571071624756</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.4097887575626373</v>
       </c>
       <c r="W291" t="n">
-        <v>0.009231814183294773</v>
+        <v>8.679724601279304e-07</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4034028053283691</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8681526780128479</v>
       </c>
       <c r="W292" t="n">
-        <v>3.730647790689545e-08</v>
+        <v>0.2159924507141113</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4086599349975586</v>
       </c>
       <c r="V293" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.4085081517696381</v>
       </c>
       <c r="W293" t="n">
-        <v>0.001438188483007252</v>
+        <v>2.303814738979781e-08</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4040219783782959</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8698127865791321</v>
       </c>
       <c r="W294" t="n">
-        <v>0.05695124343037605</v>
+        <v>0.216961070895195</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.458176851272583</v>
       </c>
       <c r="V295" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8720822930335999</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01153337117284536</v>
+        <v>0.1713177114725113</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.403702974319458</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.4863091111183167</v>
       </c>
       <c r="W296" t="n">
-        <v>0.05724458768963814</v>
+        <v>0.006823773961514235</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4040439128875732</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4050822854042053</v>
       </c>
       <c r="W297" t="n">
-        <v>0.07185084372758865</v>
+        <v>1.078217451322416e-06</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4299740791320801</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.8981671929359436</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002414933638647199</v>
+        <v>0.2192047983407974</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4129841327667236</v>
       </c>
       <c r="V299" t="n">
-        <v>0.541418194770813</v>
+        <v>0.3971765041351318</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01649530790746212</v>
+        <v>0.0002498811227269471</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4036910533905029</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.8717807531356812</v>
       </c>
       <c r="W300" t="n">
-        <v>0.005492000840604305</v>
+        <v>0.2191079705953598</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.5016920566558838</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.516649603843689</v>
       </c>
       <c r="W301" t="n">
-        <v>0.009623032063245773</v>
+        <v>0.000223728216951713</v>
       </c>
     </row>
     <row r="302" spans="1:23">
